--- a/Parts List - Trident 5 axis.xlsx
+++ b/Parts List - Trident 5 axis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t xml:space="preserve">Aluminium Extrusion 2020 </t>
   </si>
@@ -237,9 +237,6 @@
     <t>M3 x 16mm</t>
   </si>
   <si>
-    <t>Work in progress</t>
-  </si>
-  <si>
     <t>Spacer M5 x 1mm</t>
   </si>
   <si>
@@ -274,13 +271,73 @@
   </si>
   <si>
     <t>lenght 302 or 303 mm</t>
+  </si>
+  <si>
+    <t>M3 x 14mm</t>
+  </si>
+  <si>
+    <t>Nonplanar nozzle</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>M3 x 6mm</t>
+  </si>
+  <si>
+    <t>Screw FHCS stainless steel !!!</t>
+  </si>
+  <si>
+    <t> 24V Ceramic Heating Core</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>https://imprimante-3d-service.com/gb/553-trianglelab-chc-v6-24v-115w-ceramic-heater.html</t>
+  </si>
+  <si>
+    <t>for V6 Hotend</t>
+  </si>
+  <si>
+    <t> HeatSink Extruder Radiator 3D Printer</t>
+  </si>
+  <si>
+    <t>Heat Break For 1.75mm Filament M6</t>
+  </si>
+  <si>
+    <t>for V6 Hotend M6 bottom,                                           top 1/8 or M10mm thread</t>
+  </si>
+  <si>
+    <t>https://www.omgextrd.com/product-page/omgextrd-omg-dm1-extruder-upgrade</t>
+  </si>
+  <si>
+    <t>OMG V2S Extruder</t>
+  </si>
+  <si>
+    <t>with M6 to M10 adapter and stepper motor</t>
+  </si>
+  <si>
+    <t>https://store.dremc.com.au/products/omg-v2s-all-metal-direct-extruder-dual-drive-dm1-a-dm1-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip ties </t>
+  </si>
+  <si>
+    <t>1.0 M then cut it tio required lenght</t>
+  </si>
+  <si>
+    <t>PTFE Tube OD 4mm ID 2.5mm</t>
+  </si>
+  <si>
+    <t>24V Fan 30x30x10mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +420,14 @@
       <i/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,7 +529,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,6 +612,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,7 +924,7 @@
     <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="62.25" customHeight="1">
@@ -866,7 +935,7 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1">
+    <row r="2" spans="1:10" ht="41.25" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
@@ -1059,7 +1128,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -1263,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -1329,9 +1398,7 @@
       <c r="A42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>73</v>
-      </c>
+      <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="29.25" customHeight="1">
       <c r="A43" s="25" t="s">
@@ -1382,199 +1449,321 @@
         <v>33</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C47" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="29.25" customHeight="1">
       <c r="A48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="23">
+        <v>2</v>
+      </c>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A52" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="23">
+      <c r="B53" s="11"/>
+      <c r="C53" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A50" s="25" t="s">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A54" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C54" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A51" s="25" t="s">
+    <row r="55" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A55" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C55" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A52" s="26" t="s">
+    <row r="56" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A56" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B56" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A53" s="28" t="s">
+      <c r="C56" s="23">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A57" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="23">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A54" s="26" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A58" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B58" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A55" s="26" t="s">
+      <c r="C58" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A59" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A57" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A58" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="23">
-        <v>1</v>
-      </c>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>68</v>
       </c>
       <c r="B59" s="27"/>
       <c r="C59" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" ht="23.25" customHeight="1"/>
-    <row r="63" spans="1:4" ht="23.25" customHeight="1"/>
-    <row r="64" spans="1:4" ht="23.25" customHeight="1"/>
-    <row r="65" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="66" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="67" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="68" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="69" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="70" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="71" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="72" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A72" s="29" t="s">
+    <row r="60" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A61" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="23">
+        <v>2</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A62" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A63" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="23">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="33" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="23">
+        <v>1</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="23.25" customHeight="1"/>
+    <row r="73" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A73" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A74" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="31"/>
-    </row>
-    <row r="73" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A73" s="25" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A75" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A74" s="26" t="s">
+      <c r="B76" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A75" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>82</v>
+      <c r="C77" s="23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Parts List - Trident 5 axis.xlsx
+++ b/Parts List - Trident 5 axis.xlsx
@@ -312,9 +312,6 @@
     <t>https://www.omgextrd.com/product-page/omgextrd-omg-dm1-extruder-upgrade</t>
   </si>
   <si>
-    <t>OMG V2S Extruder</t>
-  </si>
-  <si>
     <t>with M6 to M10 adapter and stepper motor</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>24V Fan 30x30x10mm</t>
+  </si>
+  <si>
+    <t>DM1 OMG V2S Extruder</t>
   </si>
 </sst>
 </file>
@@ -610,12 +610,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,12 +928,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -1487,7 +1487,7 @@
       <c r="C50" s="23">
         <v>2</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
@@ -1645,7 +1645,7 @@
       <c r="C65" s="23">
         <v>1</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="33" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1673,27 +1673,27 @@
     </row>
     <row r="68" spans="1:5" ht="45.75" customHeight="1">
       <c r="A68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="23">
+        <v>1</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="C68" s="23">
-        <v>1</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="33.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="23">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="70" spans="1:5" ht="33.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="23">
@@ -1710,7 +1710,7 @@
     </row>
     <row r="71" spans="1:5" ht="23.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="23">

--- a/Parts List - Trident 5 axis.xlsx
+++ b/Parts List - Trident 5 axis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t xml:space="preserve">Aluminium Extrusion 2020 </t>
   </si>
@@ -192,9 +192,6 @@
     <t xml:space="preserve">Lenght 200mm </t>
   </si>
   <si>
-    <t>Z - axis Hotend with Extruder</t>
-  </si>
-  <si>
     <t>Parts list Voron Trident 5-axis</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Small Shaft 5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenght 44mm </t>
-  </si>
-  <si>
     <t>Shaft Collar 5mm</t>
   </si>
   <si>
@@ -327,10 +321,52 @@
     <t>PTFE Tube OD 4mm ID 2.5mm</t>
   </si>
   <si>
-    <t>24V Fan 30x30x10mm</t>
-  </si>
-  <si>
     <t>DM1 OMG V2S Extruder</t>
+  </si>
+  <si>
+    <t>Paneldue touch screen 5"</t>
+  </si>
+  <si>
+    <t>https://docs.duet3d.com/Duet3D_hardware/Accessories/PanelDue</t>
+  </si>
+  <si>
+    <t>https://www.duet3d.com/duet3mainboard6hc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be used from the voron kit </t>
+  </si>
+  <si>
+    <t>to fit the mouting hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenght 45mm </t>
+  </si>
+  <si>
+    <t>Chain link 10x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5m </t>
+  </si>
+  <si>
+    <t>24V  Fan 30x30x10mm</t>
+  </si>
+  <si>
+    <t>24V Blower Fan 120x120x32mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 </t>
+  </si>
+  <si>
+    <t>Screw BHCS</t>
+  </si>
+  <si>
+    <t>M5 x 25mm</t>
+  </si>
+  <si>
+    <t>Z - axis Hotend with Extruder plus touch screen and blower fan</t>
   </si>
 </sst>
 </file>
@@ -441,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -521,6 +557,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -529,7 +574,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,6 +661,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -912,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="62.25" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1128,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -1332,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -1394,9 +1445,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="118.5" customHeight="1">
+    <row r="42" spans="1:4" ht="174.75" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B42" s="31"/>
     </row>
@@ -1408,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="23">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29.25" customHeight="1">
@@ -1441,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="23">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="29.25" customHeight="1">
@@ -1460,10 +1511,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C48" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29.25" customHeight="1">
@@ -1471,298 +1522,407 @@
         <v>33</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C49" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="23">
-        <v>2</v>
-      </c>
-      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C51" s="23">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A52" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="11"/>
+      <c r="A52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C52" s="23">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="11"/>
+      <c r="A53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="C53" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29.25" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C54" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="29.25" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C55" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A56" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>57</v>
+      <c r="A56" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C56" s="23">
-        <v>1</v>
-      </c>
-      <c r="D56" s="16"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A57" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="12"/>
+      <c r="A57" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="C57" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A58" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>62</v>
-      </c>
+      <c r="A58" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="11"/>
       <c r="C58" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="27"/>
+      <c r="A59" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="C59" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="29.25" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A61" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C61" s="23">
         <v>2</v>
       </c>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A62" s="28" t="s">
-        <v>65</v>
+    <row r="62" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A62" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B62" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A63" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A66" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="23">
+        <v>2</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A67" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A68" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A69" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A63" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="B69" s="27"/>
+      <c r="C69" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="23">
+        <v>1</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="11" t="s">
+    </row>
+    <row r="71" spans="1:5" ht="33" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="23">
-        <v>1</v>
-      </c>
-      <c r="D65" s="33" t="s">
+      <c r="C72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="33" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="B73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="23">
+        <v>1</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="51.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="E73" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="36"/>
+    </row>
+    <row r="75" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" customHeight="1"/>
+    <row r="81" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A81" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="D81" s="33"/>
+    </row>
+    <row r="82" spans="1:4" ht="31.5" customHeight="1">
+      <c r="A82" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="23">
+        <v>1</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="23">
-        <v>1</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A83" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="23">
+        <v>1</v>
+      </c>
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:4" ht="33.75">
+      <c r="A84" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="B84" s="27"/>
+      <c r="C84" s="23">
+        <v>1</v>
+      </c>
+      <c r="D84" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="73" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A73" s="29" t="s">
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="31"/>
-    </row>
-    <row r="74" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A74" s="25" t="s">
+      <c r="B85" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A75" s="26" t="s">
+      <c r="C85" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="23">
+      <c r="C86" s="23">
         <v>1</v>
       </c>
     </row>

--- a/Parts List - Trident 5 axis.xlsx
+++ b/Parts List - Trident 5 axis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t xml:space="preserve">Aluminium Extrusion 2020 </t>
   </si>
@@ -294,9 +294,6 @@
     <t>for V6 Hotend</t>
   </si>
   <si>
-    <t> HeatSink Extruder Radiator 3D Printer</t>
-  </si>
-  <si>
     <t>Heat Break For 1.75mm Filament M6</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>PTFE Tube OD 4mm ID 2.5mm</t>
   </si>
   <si>
-    <t>DM1 OMG V2S Extruder</t>
-  </si>
-  <si>
     <t>Paneldue touch screen 5"</t>
   </si>
   <si>
@@ -373,6 +367,75 @@
   </si>
   <si>
     <t>200mm then cut it tio required length in between hot end and extruder</t>
+  </si>
+  <si>
+    <t>https://www.nonplanar.xyz/nozzles</t>
+  </si>
+  <si>
+    <t>V6 HeatSink Extruder Radiator 3D Printer</t>
+  </si>
+  <si>
+    <t>1M then cut it tio required length in between hot end and extruder</t>
+  </si>
+  <si>
+    <t>DM1 OMG V2S Extruder kit with stepper motor and M6 to M10 adapter</t>
+  </si>
+  <si>
+    <t>This parts are only for,  if you decide to build Direct Drive version</t>
+  </si>
+  <si>
+    <t>This parts are only for,  if you decide to build Bowden Drive version</t>
+  </si>
+  <si>
+    <t>https://meltbro.de/v6-pro-adapter-ersetzt-volcano-hotend-fuer-v6-nozzle-duese-aus-vernickeltem-kupfer.html</t>
+  </si>
+  <si>
+    <t>https://3do.eu/spare-parts/672-v6-pro-adapter-to-increase-super-flow-of-v6-rapidohot-end.html</t>
+  </si>
+  <si>
+    <t>V6 pro adapter in between nozzle and heat element CHC</t>
+  </si>
+  <si>
+    <t>0.01mm sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator Finger Clock for bed and axis calibration </t>
+  </si>
+  <si>
+    <t>https://rdbarrett.co.uk/product/dial-test-indicator-horizontal-type-08mm-001mm-mitutoyo-finger-clock/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Indicator_(distance_amplifying_instrument)</t>
+  </si>
+  <si>
+    <t>M6 thread</t>
+  </si>
+  <si>
+    <t>Phaetus x Voron Dragon Standard Flow or Highflow Hotend</t>
+  </si>
+  <si>
+    <t>https://www.3dmensionals.de/phaetus-x-voron-dragon-hotend-st-2069#attr=9949,9951,22290</t>
+  </si>
+  <si>
+    <t>https://www.phaetus.com/products/phaetus-x-voron-hotend-st</t>
+  </si>
+  <si>
+    <t>PC4 - M10</t>
+  </si>
+  <si>
+    <t>https://www.whambamsystems.com/products/metal-coupler-pc4-m10</t>
+  </si>
+  <si>
+    <t>Pneumatic Coupler PC4-M10 With Collar</t>
+  </si>
+  <si>
+    <t>Extruder for 1.75mm filament ( for exmple BondTech) mounted at back of the frame of the printer</t>
+  </si>
+  <si>
+    <t>BMG mounted with bracket on 2020 aluminium profile near to filamnet spool holder</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/bmg-extruder/</t>
   </si>
 </sst>
 </file>
@@ -580,7 +643,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,9 +704,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -668,7 +728,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,12 +1051,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -1168,7 +1234,7 @@
       </c>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="1:4" ht="78.75" customHeight="1">
+    <row r="17" spans="1:4" ht="141.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1176,7 +1242,7 @@
       <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1225,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1">
@@ -1344,7 +1410,7 @@
       </c>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="1:4" ht="67.5" customHeight="1">
+    <row r="33" spans="1:4" ht="117.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
@@ -1354,11 +1420,11 @@
       <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.5" customHeight="1">
+    <row r="34" spans="1:4" ht="67.5" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1434,7 @@
       <c r="C34" s="10">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="35" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1452,27 +1518,27 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="174.75" customHeight="1">
-      <c r="A42" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="31"/>
+      <c r="A42" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="30"/>
     </row>
     <row r="43" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="23">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="23">
@@ -1480,7 +1546,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -1491,7 +1557,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -1502,18 +1568,18 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -1524,7 +1590,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1535,7 +1601,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -1566,7 +1632,7 @@
       <c r="C52" s="23">
         <v>2</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
@@ -1580,8 +1646,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A54" s="25" t="s">
-        <v>114</v>
+      <c r="A54" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -1591,18 +1657,18 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A55" s="25" t="s">
-        <v>114</v>
+      <c r="A55" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -1613,18 +1679,18 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A57" s="25" t="s">
-        <v>112</v>
+      <c r="A57" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="11"/>
@@ -1633,18 +1699,18 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -1655,7 +1721,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -1667,10 +1733,10 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="23">
@@ -1678,38 +1744,38 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A64" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A64" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>107</v>
-      </c>
       <c r="C64" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -1721,7 +1787,7 @@
       <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -1732,10 +1798,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="23">
@@ -1743,10 +1809,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="23">
         <v>1</v>
       </c>
@@ -1761,11 +1827,11 @@
       <c r="C70" s="23">
         <v>1</v>
       </c>
-      <c r="D70" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="33" customHeight="1">
+      <c r="D70" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="99" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>88</v>
       </c>
@@ -1775,10 +1841,13 @@
       <c r="C71" s="23">
         <v>1</v>
       </c>
+      <c r="D71" s="35" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="51.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>91</v>
@@ -1787,42 +1856,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="45.75" customHeight="1">
+    <row r="73" spans="1:5" ht="33.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C73" s="23">
         <v>1</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="25.5" customHeight="1">
+    </row>
+    <row r="74" spans="1:5" ht="33.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" s="23">
         <v>1</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="35"/>
-    </row>
-    <row r="75" spans="1:5" ht="33.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:5" ht="51" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C75" s="23">
         <v>1</v>
@@ -1830,125 +1891,242 @@
     </row>
     <row r="76" spans="1:5" ht="33.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51" customHeight="1">
+    <row r="77" spans="1:5" ht="23.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="33.75" customHeight="1">
+    <row r="78" spans="1:5" ht="23.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="23.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="80.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="C79" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="23">
+      <c r="D79" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="175.5" customHeight="1">
+      <c r="A80" s="34"/>
+      <c r="B80" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="23">
+        <v>1</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="23">
+        <v>1</v>
+      </c>
+      <c r="D82" s="32"/>
+      <c r="E82" s="33"/>
+    </row>
+    <row r="83" spans="1:5" ht="172.5" customHeight="1">
+      <c r="A83" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="57.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="23">
+        <v>1</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="23">
+        <v>1</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="95.25" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="23">
+        <v>1</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="35"/>
+    </row>
+    <row r="88" spans="1:5" ht="62.25" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="23">
+        <v>1</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A89" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="D89" s="32"/>
+    </row>
+    <row r="90" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A90" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="23">
+        <v>1</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A91" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="23">
+        <v>1</v>
+      </c>
+      <c r="D91" s="35"/>
+    </row>
+    <row r="92" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A92" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1"/>
-    <row r="82" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A82" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="D82" s="33"/>
-    </row>
-    <row r="83" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A83" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="23">
-        <v>1</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A84" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="23">
-        <v>1</v>
-      </c>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="1:4" ht="33.75">
-      <c r="A85" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="23">
-        <v>1</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="25" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="23">
+        <v>1</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C86" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
+      <c r="C93" s="23">
+        <v>1</v>
+      </c>
+      <c r="D93" s="35"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="23">
-        <v>1</v>
-      </c>
+      <c r="C94" s="23">
+        <v>1</v>
+      </c>
+      <c r="D94" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D81" r:id="rId1"/>
+    <hyperlink ref="E81" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Parts List - Trident 5 axis.xlsx
+++ b/Parts List - Trident 5 axis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t xml:space="preserve">Aluminium Extrusion 2020 </t>
   </si>
@@ -105,9 +105,6 @@
     <t>IGUS ring</t>
   </si>
   <si>
-    <t>M3 x 7mm</t>
-  </si>
-  <si>
     <t>M3 x 22mm</t>
   </si>
   <si>
@@ -436,6 +433,12 @@
   </si>
   <si>
     <t>https://www.bondtech.se/product/bmg-extruder/</t>
+  </si>
+  <si>
+    <t>M3 x 30mm</t>
+  </si>
+  <si>
+    <t>Printer will be installed with TWO Fans LEFT and RIGHT side</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,7 +1055,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="62.25" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6"/>
       <c r="E2" s="1"/>
@@ -1099,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10">
         <v>12</v>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>11</v>
@@ -1227,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -1236,14 +1239,14 @@
     </row>
     <row r="17" spans="1:4" ht="141.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" customHeight="1">
@@ -1251,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="29"/>
@@ -1302,183 +1305,181 @@
         <v>9</v>
       </c>
       <c r="C23" s="10">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C24" s="10">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C25" s="10">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C26" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C28" s="10">
         <v>6</v>
       </c>
       <c r="D28" s="17"/>
     </row>
-    <row r="29" spans="1:4" ht="23.25" customHeight="1">
+    <row r="29" spans="1:4" ht="26.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="10">
-        <v>6</v>
-      </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="10">
-        <v>7</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" ht="27.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="26.25" customHeight="1">
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" ht="117.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" ht="117.75" customHeight="1">
+      <c r="D32" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="67.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="67.5" customHeight="1">
+    </row>
+    <row r="34" spans="1:4" ht="17.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C34" s="10">
-        <v>1</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>36</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="17.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="10">
         <v>2</v>
       </c>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="10">
-        <v>1</v>
-      </c>
       <c r="D36" s="18"/>
     </row>
-    <row r="37" spans="1:4" ht="37.5" customHeight="1">
+    <row r="37" spans="1:4" ht="44.25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="18"/>
     </row>
-    <row r="38" spans="1:4" ht="44.25" customHeight="1">
+    <row r="38" spans="1:4" ht="27.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="10">
         <v>1</v>
       </c>
@@ -1486,93 +1487,94 @@
     </row>
     <row r="39" spans="1:4" ht="27.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C39" s="10">
         <v>1</v>
       </c>
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="1:4" ht="27.75" customHeight="1">
+    <row r="40" spans="1:4" ht="41.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="23">
+      <c r="C40" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="174.75" customHeight="1">
-      <c r="A42" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="30"/>
+    <row r="41" spans="1:4" ht="174.75" customHeight="1">
+      <c r="A41" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="23">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
+      <c r="B43" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="23">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29.25" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="23">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29.25" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C45" s="23">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="29.25" customHeight="1">
       <c r="A46" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C46" s="23">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="29.25" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C47" s="23">
         <v>6</v>
@@ -1580,77 +1582,77 @@
     </row>
     <row r="48" spans="1:4" ht="29.25" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C48" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29.25" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C49" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A50" s="24" t="s">
-        <v>33</v>
+      <c r="A50" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C50" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C51" s="23">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C52" s="23">
-        <v>2</v>
-      </c>
-      <c r="F52" s="31"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>32</v>
+      <c r="A53" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C53" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29.25" customHeight="1">
       <c r="A54" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="C54" s="23">
         <v>5</v>
@@ -1658,52 +1660,52 @@
     </row>
     <row r="55" spans="1:6" ht="29.25" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C55" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="29.25" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C56" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29.25" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>111</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B57" s="11"/>
       <c r="C57" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1">
       <c r="A58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="C58" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C59" s="23">
         <v>4</v>
@@ -1711,44 +1713,44 @@
     </row>
     <row r="60" spans="1:6" ht="29.25" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="23">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>67</v>
+      <c r="A61" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="23">
-        <v>2</v>
-      </c>
-      <c r="D61" s="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A63" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A63" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>103</v>
+      <c r="B63" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="C63" s="23">
         <v>1</v>
@@ -1758,99 +1760,99 @@
       <c r="A64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>105</v>
-      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A65" s="25" t="s">
+    <row r="65" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="26"/>
       <c r="C65" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A66" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A66" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C66" s="23">
         <v>2</v>
       </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="22.5" customHeight="1">
+    </row>
+    <row r="67" spans="1:5" ht="23.25" customHeight="1">
       <c r="A67" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C67" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A68" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="A68" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A69" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="26"/>
+    <row r="69" spans="1:5" ht="51.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="C69" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="51.75" customHeight="1">
+      <c r="D69" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="99" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C70" s="23">
         <v>1</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="99" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="51.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" s="23">
         <v>1</v>
       </c>
-      <c r="D71" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="51.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:5" ht="33.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C72" s="23">
         <v>1</v>
@@ -1858,40 +1860,40 @@
     </row>
     <row r="73" spans="1:5" ht="33.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="51" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C73" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="51" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="23">
@@ -1900,230 +1902,221 @@
     </row>
     <row r="77" spans="1:5" ht="23.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="23.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="80.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="C78" s="23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="80.25" customHeight="1">
-      <c r="A79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="23">
-        <v>1</v>
-      </c>
-      <c r="D79" s="35" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="175.5" customHeight="1">
+      <c r="A79" s="34"/>
+      <c r="B79" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="23">
+        <v>1</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="23">
+        <v>1</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="33"/>
+    </row>
+    <row r="82" spans="1:5" ht="172.5" customHeight="1">
+      <c r="A82" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="57.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E79" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="175.5" customHeight="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="22"/>
-    </row>
-    <row r="81" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="23">
-        <v>1</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="23">
-        <v>1</v>
-      </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33"/>
-    </row>
-    <row r="83" spans="1:5" ht="172.5" customHeight="1">
-      <c r="A83" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="30" t="s">
+      <c r="C84" s="23">
+        <v>1</v>
+      </c>
+      <c r="D84" s="35" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="57.75" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="91.5" customHeight="1">
+      <c r="E84" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="95.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="11" t="s">
         <v>130</v>
       </c>
+      <c r="B85" s="11"/>
       <c r="C85" s="23">
         <v>1</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="95.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B86" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="C86" s="23">
         <v>1</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="35"/>
+    </row>
+    <row r="87" spans="1:5" ht="62.25" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A87" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="C87" s="23">
         <v>1</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="35"/>
-    </row>
-    <row r="88" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="23">
-        <v>1</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A89" s="28" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A88" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="D88" s="32"/>
+    </row>
+    <row r="89" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A89" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="D89" s="32"/>
-    </row>
-    <row r="90" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A90" s="24" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="23">
+        <v>1</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A90" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="23">
+        <v>1</v>
+      </c>
+      <c r="D90" s="35"/>
+    </row>
+    <row r="91" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A91" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="23">
+        <v>1</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="23">
-        <v>1</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A91" s="25" t="s">
+      <c r="B92" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="23">
+        <v>1</v>
+      </c>
+      <c r="D92" s="35"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="23">
-        <v>1</v>
-      </c>
-      <c r="D91" s="35"/>
-    </row>
-    <row r="92" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A92" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="23">
-        <v>1</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>76</v>
+      <c r="B93" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="C93" s="23">
         <v>1</v>
       </c>
       <c r="D93" s="35"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="23">
-        <v>1</v>
-      </c>
-      <c r="D94" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D81" r:id="rId1"/>
-    <hyperlink ref="E81" r:id="rId2"/>
+    <hyperlink ref="D80" r:id="rId1"/>
+    <hyperlink ref="E80" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
